--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.591999999999999</v>
+        <v>-7.656000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.534</v>
+        <v>6.927</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -522,10 +522,10 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.891999999999999</v>
+        <v>-8.293000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>12.992</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.336</v>
+        <v>13.653</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.396</v>
+        <v>13.132</v>
       </c>
     </row>
     <row r="12">
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.906000000000001</v>
+        <v>7.165999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -703,13 +703,13 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>5.534</v>
+        <v>6.927</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.964</v>
+        <v>-7.608</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -729,7 +729,7 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>12.956</v>
+        <v>13.653</v>
       </c>
     </row>
     <row r="18">
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>6.356</v>
+        <v>6.6</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.294</v>
+        <v>12.694</v>
       </c>
     </row>
     <row r="22">
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>7.140000000000001</v>
+        <v>6.609999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.836</v>
+        <v>6.726999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
